--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2746324886674358</v>
+        <v>2.2746325054409056</v>
       </c>
       <c r="C2">
-        <v>7.007673554891241</v>
+        <v>7.0076735372783787</v>
       </c>
       <c r="D2">
-        <v>10.704512327624329</v>
+        <v>10.704512287301391</v>
       </c>
       <c r="E2">
-        <v>17.637336324793274</v>
+        <v>17.637336304373115</v>
       </c>
       <c r="F2">
-        <v>5.0160480033423838</v>
+        <v>5.0160479914332825</v>
       </c>
       <c r="G2">
-        <v>1.4921177678456345</v>
+        <v>1.492117759742321</v>
       </c>
       <c r="H2">
-        <v>4.8132629688660913</v>
+        <v>4.8132629479304327</v>
       </c>
       <c r="I2">
-        <v>7.983052567691594</v>
+        <v>7.9830525670732868</v>
       </c>
       <c r="J2">
-        <v>12.697829258135755</v>
+        <v>12.697829214305472</v>
       </c>
       <c r="K2">
-        <v>3.6090182056044</v>
+        <v>3.6090181941986117</v>
       </c>
       <c r="L2">
-        <v>3.5361167642990736</v>
+        <v>3.5361167400677971</v>
       </c>
       <c r="M2">
-        <v>-6.7640652041788201</v>
+        <v>-6.7640652009084192</v>
       </c>
       <c r="N2">
-        <v>9.1736138096896838</v>
+        <v>9.1736137985746637</v>
       </c>
       <c r="O2">
-        <v>7.0164673054719913</v>
+        <v>7.016467275708635</v>
       </c>
       <c r="P2">
-        <v>10.440305611002678</v>
+        <v>10.440305617511008</v>
       </c>
       <c r="Q2">
-        <v>-0.36220493917212337</v>
+        <v>-0.36220495789908114</v>
       </c>
       <c r="R2">
-        <v>-5.4409116128612851</v>
+        <v>-5.4409116359273781</v>
       </c>
       <c r="S2">
-        <v>18.225993584999358</v>
+        <v>18.225993587561419</v>
       </c>
       <c r="T2">
-        <v>16.08278972373197</v>
+        <v>16.082789742823401</v>
       </c>
       <c r="U2">
-        <v>-1.2921083630989756</v>
+        <v>-1.2921083848738988</v>
       </c>
       <c r="V2">
-        <v>4.8634512177286879</v>
+        <v>4.8634512068984534</v>
       </c>
       <c r="W2">
-        <v>-5.5579910196285809</v>
+        <v>-5.5579910574481559</v>
       </c>
       <c r="X2">
-        <v>0.42196938159582231</v>
+        <v>0.42196936169224131</v>
       </c>
       <c r="Y2">
-        <v>13.420133987256612</v>
+        <v>13.42013396443793</v>
       </c>
       <c r="Z2">
-        <v>7.6562621494114111</v>
+        <v>7.6562621343032404</v>
       </c>
       <c r="AA2">
-        <v>19.039634496721888</v>
+        <v>19.039634358501871</v>
       </c>
       <c r="AB2">
-        <v>15.385515031509385</v>
+        <v>15.385514980250562</v>
       </c>
       <c r="AC2">
-        <v>0.68898976938955059</v>
+        <v>0.6889897334386248</v>
       </c>
       <c r="AD2">
-        <v>22.428306109162406</v>
+        <v>22.428306051673687</v>
       </c>
       <c r="AE2">
-        <v>5.5457248216867541</v>
+        <v>5.5457248163289492</v>
       </c>
       <c r="AF2">
-        <v>9.1297494400295349</v>
+        <v>9.1297494114703852</v>
       </c>
       <c r="AG2">
-        <v>10.328605111257616</v>
+        <v>10.328605047384947</v>
       </c>
       <c r="AH2">
-        <v>11.490269597014979</v>
+        <v>11.490269571313597</v>
       </c>
       <c r="AI2">
-        <v>17.657577667022323</v>
+        <v>17.657577597165201</v>
       </c>
       <c r="AJ2">
-        <v>8.7201404981381074</v>
+        <v>8.7201404565274103</v>
       </c>
       <c r="AK2">
-        <v>12.40124063680981</v>
+        <v>12.401240614037214</v>
       </c>
       <c r="AL2">
-        <v>-3.4911753837459543</v>
+        <v>-3.4911754161810649</v>
       </c>
       <c r="AM2">
-        <v>11.471684429994255</v>
+        <v>11.471684398943353</v>
       </c>
       <c r="AN2">
-        <v>10.262719576937457</v>
+        <v>10.262719555127191</v>
       </c>
       <c r="AO2">
-        <v>18.601782931215141</v>
+        <v>18.601782868928794</v>
       </c>
       <c r="AP2">
-        <v>12.8089272763943</v>
+        <v>12.808927248507331</v>
       </c>
       <c r="AQ2">
-        <v>-3.8984632604730223</v>
+        <v>-3.8984633129948634</v>
       </c>
       <c r="AR2">
-        <v>19.437971982917603</v>
+        <v>19.437971971565545</v>
       </c>
       <c r="AS2">
-        <v>20.212139375117246</v>
+        <v>20.212139297719773</v>
       </c>
       <c r="AT2">
-        <v>6.3902528383517563</v>
+        <v>6.3902528123698374</v>
       </c>
       <c r="AU2">
-        <v>10.701332862144397</v>
+        <v>10.701332858337636</v>
       </c>
       <c r="AV2">
-        <v>9.1704142820524552</v>
+        <v>9.1704141768375536</v>
       </c>
       <c r="AW2">
-        <v>4.46572853857311</v>
+        <v>4.4657285219148193</v>
       </c>
       <c r="AX2">
-        <v>15.380138383481054</v>
+        <v>15.380138349927364</v>
       </c>
       <c r="AY2">
-        <v>18.079189990383263</v>
+        <v>18.079189963473844</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.038115829416931</v>
+        <v>7.0381158058730122</v>
       </c>
       <c r="C3">
-        <v>6.2851482780989514</v>
+        <v>6.2851482587024563</v>
       </c>
       <c r="D3">
-        <v>12.026930280907386</v>
+        <v>12.026930254915939</v>
       </c>
       <c r="E3">
-        <v>13.003738810837362</v>
+        <v>13.003738810943929</v>
       </c>
       <c r="F3">
-        <v>4.5492218300221197</v>
+        <v>4.5492218031362341</v>
       </c>
       <c r="G3">
-        <v>10.460772213339098</v>
+        <v>10.460772196397755</v>
       </c>
       <c r="H3">
-        <v>-2.813829272411013</v>
+        <v>-2.8138292858076497</v>
       </c>
       <c r="I3">
-        <v>2.6416164731993277</v>
+        <v>2.6416164617394315</v>
       </c>
       <c r="J3">
-        <v>14.631661421735032</v>
+        <v>14.631661381737374</v>
       </c>
       <c r="K3">
-        <v>21.422445107002012</v>
+        <v>21.422445085553242</v>
       </c>
       <c r="L3">
-        <v>12.715551278647929</v>
+        <v>12.715551251795212</v>
       </c>
       <c r="M3">
-        <v>-0.34513766137546043</v>
+        <v>-0.34510453375671091</v>
       </c>
       <c r="N3">
-        <v>6.8772543942914126</v>
+        <v>6.877254376254939</v>
       </c>
       <c r="O3">
-        <v>-11.440132912246874</v>
+        <v>-11.440132929815015</v>
       </c>
       <c r="P3">
-        <v>11.378730608125679</v>
+        <v>11.37873058022177</v>
       </c>
       <c r="Q3">
-        <v>4.3381913813623711</v>
+        <v>4.3381913594709616</v>
       </c>
       <c r="R3">
-        <v>1.1129731869595503</v>
+        <v>1.1129731498115163</v>
       </c>
       <c r="S3">
-        <v>14.102361247312068</v>
+        <v>14.102361242488037</v>
       </c>
       <c r="T3">
-        <v>15.387481559369569</v>
+        <v>15.387481541365354</v>
       </c>
       <c r="U3">
-        <v>6.7320888920465123</v>
+        <v>6.7320888843584683</v>
       </c>
       <c r="V3">
-        <v>8.2685115091007191</v>
+        <v>8.268511494210486</v>
       </c>
       <c r="W3">
-        <v>-0.87914991137508736</v>
+        <v>-0.87914994953304415</v>
       </c>
       <c r="X3">
-        <v>-3.2903927169362603</v>
+        <v>-3.2903927334911103</v>
       </c>
       <c r="Y3">
-        <v>16.979591352895518</v>
+        <v>16.979591322630448</v>
       </c>
       <c r="Z3">
-        <v>9.5035977414973942</v>
+        <v>9.5035977268053031</v>
       </c>
       <c r="AA3">
-        <v>19.010780930117335</v>
+        <v>19.010780937035548</v>
       </c>
       <c r="AB3">
-        <v>15.245672403920075</v>
+        <v>15.245672363267197</v>
       </c>
       <c r="AC3">
-        <v>15.869992095666355</v>
+        <v>15.869992094336162</v>
       </c>
       <c r="AD3">
-        <v>20.472953129112931</v>
+        <v>20.472953070464719</v>
       </c>
       <c r="AE3">
-        <v>12.238740347828298</v>
+        <v>12.238740332076375</v>
       </c>
       <c r="AF3">
-        <v>11.053293951920402</v>
+        <v>11.053293920034712</v>
       </c>
       <c r="AG3">
-        <v>6.7004142892333292</v>
+        <v>6.7004142854150146</v>
       </c>
       <c r="AH3">
-        <v>4.6593526965617542</v>
+        <v>4.6593526348438701</v>
       </c>
       <c r="AI3">
-        <v>37.670914169210604</v>
+        <v>37.670914069013264</v>
       </c>
       <c r="AJ3">
-        <v>19.352086620235248</v>
+        <v>19.352086592895546</v>
       </c>
       <c r="AK3">
-        <v>14.049157893464979</v>
+        <v>14.049157876219581</v>
       </c>
       <c r="AL3">
-        <v>9.1152762558678901</v>
+        <v>9.1152762325918459</v>
       </c>
       <c r="AM3">
-        <v>11.96492767300046</v>
+        <v>11.964927595038091</v>
       </c>
       <c r="AN3">
-        <v>-6.7186270710562397</v>
+        <v>-6.7186271057181273</v>
       </c>
       <c r="AO3">
-        <v>19.783124741027486</v>
+        <v>19.783124705028492</v>
       </c>
       <c r="AP3">
-        <v>2.640145500983877</v>
+        <v>2.6401454607080126</v>
       </c>
       <c r="AQ3">
-        <v>9.2229732435090739</v>
+        <v>9.2229732131410245</v>
       </c>
       <c r="AR3">
-        <v>24.959490279506134</v>
+        <v>24.959490272968104</v>
       </c>
       <c r="AS3">
-        <v>15.454346487825887</v>
+        <v>15.454346417125237</v>
       </c>
       <c r="AT3">
-        <v>10.031972811517775</v>
+        <v>10.031972755226292</v>
       </c>
       <c r="AU3">
-        <v>7.6969229343804315</v>
+        <v>7.6969229035220792</v>
       </c>
       <c r="AV3">
-        <v>5.2711433874218159</v>
+        <v>5.2711432952139745</v>
       </c>
       <c r="AW3">
-        <v>4.6173008789369518</v>
+        <v>4.6173008151193642</v>
       </c>
       <c r="AX3">
-        <v>9.6108000251804242</v>
+        <v>9.6107999733049851</v>
       </c>
       <c r="AY3">
-        <v>21.3593346091154</v>
+        <v>21.359334595894019</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>2.2746325054409056</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.0076735372783787</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>10.704512287301391</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>17.637336304373115</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.0160479914332825</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.492117759742321</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>4.8132629479304327</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.9830525670732868</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>12.697829214305472</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3.6090181941986117</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.5361167400677971</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-6.7640652009084192</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.1736137985746637</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>7.016467275708635</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>10.440305617511008</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-0.36220495789908114</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-5.4409116359273781</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>18.225993587561419</v>
+        <v>11.154755760125255</v>
       </c>
       <c r="T2">
         <v>16.082789742823401</v>
@@ -588,55 +477,55 @@
         <v>7.6562621343032404</v>
       </c>
       <c r="AA2">
-        <v>19.039634358501871</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>15.385514980250562</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.6889897334386248</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>22.428306051673687</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>5.5457248163289492</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>9.1297494114703852</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>10.328605047384947</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>11.490269571313597</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>17.657577597165201</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>8.7201404565274103</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>12.401240614037214</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-3.4911754161810649</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>11.471684398943353</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>10.262719555127191</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>18.601782868928794</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>12.808927248507331</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-3.8984633129948634</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>19.437971971565545</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>7.0381158058730122</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.2851482587024563</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>12.026930254915939</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>13.003738810943929</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.5492218031362341</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10.460772196397755</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-2.8138292858076497</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.6416164617394315</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>14.631661381737374</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>21.422445085553242</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.715551251795212</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.34510453375671091</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>6.877254376254939</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-11.440132929815015</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>11.37873058022177</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.3381913594709616</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.1129731498115163</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>14.102361242488037</v>
@@ -743,55 +629,55 @@
         <v>9.5035977268053031</v>
       </c>
       <c r="AA3">
-        <v>19.010780937035548</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>15.245672363267197</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>15.869992094336162</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>20.472953070464719</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>12.238740332076375</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>11.053293920034712</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>6.7004142854150146</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>4.6593526348438701</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>37.670914069013264</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>19.352086592895546</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>14.049157876219581</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>9.1152762325918459</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>11.964927595038091</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-6.7186271057181273</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>19.783124705028492</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.6401454607080126</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>9.2229732131410245</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>24.959490272968104</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2.2746324886674358</v>
-      </c>
       <c r="C2">
-        <v>4.69976008042714</v>
-      </c>
-      <c r="D2">
-        <v>10.704512327624329</v>
+        <v>-5.4409116359273781</v>
       </c>
       <c r="E2">
-        <v>17.637336324793274</v>
+        <v>-3.8984633129948634</v>
       </c>
       <c r="F2">
         <v>5.0160480033423838</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.038115829416931</v>
+        <v>-6.2925999639750998</v>
       </c>
       <c r="C3">
-        <v>6.2851482780989514</v>
+        <v>1.1129731498115163</v>
       </c>
       <c r="D3">
-        <v>12.026930280907386</v>
+        <v>-5.548955410987837</v>
       </c>
       <c r="E3">
-        <v>13.003738810837362</v>
+        <v>9.7698892100261858</v>
       </c>
       <c r="F3">
         <v>4.5492218300221197</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2746324886674358</v>
-      </c>
-      <c r="C2">
-        <v>4.69976008042714</v>
+        <v>8.3808187752763956</v>
       </c>
       <c r="D2">
-        <v>10.704512327624329</v>
-      </c>
-      <c r="E2">
-        <v>17.637336324793274</v>
+        <v>11.471684398943353</v>
       </c>
       <c r="F2">
         <v>5.0160480033423838</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.038115829416931</v>
+        <v>6.877254376254939</v>
       </c>
       <c r="C3">
-        <v>6.2851482780989514</v>
+        <v>-6.2925999639750998</v>
       </c>
       <c r="D3">
-        <v>12.026930280907386</v>
+        <v>11.964927595038091</v>
       </c>
       <c r="E3">
-        <v>18.675193496477831</v>
+        <v>-5.548955410987837</v>
       </c>
       <c r="F3">
         <v>4.5492218300221197</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>2.2746325054409056</v>
+      </c>
+      <c r="C2">
+        <v>4.6997600629615448</v>
+      </c>
+      <c r="D2">
+        <v>10.704512287301391</v>
+      </c>
+      <c r="E2">
+        <v>17.637336304373115</v>
+      </c>
+      <c r="F2">
+        <v>5.0160479914332825</v>
+      </c>
+      <c r="G2">
+        <v>4.794325216108291</v>
+      </c>
+      <c r="H2">
+        <v>4.8132629479304327</v>
+      </c>
+      <c r="I2">
+        <v>11.668357312236374</v>
+      </c>
+      <c r="J2">
+        <v>12.697829214305472</v>
+      </c>
+      <c r="K2">
+        <v>3.6090181941986117</v>
+      </c>
+      <c r="L2">
+        <v>4.5840007637460047</v>
+      </c>
+      <c r="M2">
+        <v>-9.0951539250625046E-2</v>
+      </c>
+      <c r="N2">
         <v>8.3808187752763956</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>11.841126676426022</v>
+      </c>
+      <c r="Q2">
+        <v>-0.36220495789908114</v>
+      </c>
+      <c r="R2">
+        <v>-5.4409116359273781</v>
+      </c>
+      <c r="T2">
+        <v>12.866557608573885</v>
+      </c>
+      <c r="U2">
+        <v>-1.2921083848738988</v>
+      </c>
+      <c r="V2">
+        <v>7.5928530273783394</v>
+      </c>
+      <c r="W2">
+        <v>-5.5579910574481559</v>
+      </c>
+      <c r="X2">
+        <v>0.42196936169224131</v>
+      </c>
+      <c r="Y2">
+        <v>13.42013396443793</v>
+      </c>
+      <c r="Z2">
+        <v>7.6562621343032404</v>
+      </c>
+      <c r="AA2">
+        <v>19.039634358501871</v>
+      </c>
+      <c r="AB2">
+        <v>15.385514980250562</v>
+      </c>
+      <c r="AC2">
+        <v>0.6889897334386248</v>
+      </c>
+      <c r="AD2">
+        <v>22.428306051673687</v>
+      </c>
+      <c r="AE2">
+        <v>5.5457248163289492</v>
+      </c>
+      <c r="AF2">
+        <v>9.1297494114703852</v>
+      </c>
+      <c r="AG2">
+        <v>10.328605047384947</v>
+      </c>
+      <c r="AH2">
+        <v>11.490269571313597</v>
+      </c>
+      <c r="AI2">
+        <v>17.657577597165201</v>
+      </c>
+      <c r="AJ2">
+        <v>8.7201404565274103</v>
+      </c>
+      <c r="AK2">
+        <v>12.401240614037214</v>
+      </c>
+      <c r="AL2">
+        <v>-3.4911754161810649</v>
+      </c>
+      <c r="AM2">
         <v>11.471684398943353</v>
       </c>
-      <c r="F2">
-        <v>5.0160480033423838</v>
-      </c>
-      <c r="G2">
-        <v>4.7943252160318721</v>
-      </c>
-      <c r="H2">
-        <v>4.8132629688660913</v>
-      </c>
-      <c r="I2">
-        <v>11.668357300378297</v>
-      </c>
-      <c r="J2">
-        <v>12.697829258135755</v>
-      </c>
-      <c r="K2">
-        <v>3.6090182056044</v>
-      </c>
-      <c r="L2">
-        <v>4.584000802216579</v>
-      </c>
-      <c r="M2">
-        <v>-9.0951546138668959E-2</v>
-      </c>
-      <c r="N2">
-        <v>8.3808187955329885</v>
-      </c>
-      <c r="P2">
-        <v>11.841126679057119</v>
-      </c>
-      <c r="Q2">
-        <v>-0.36220493917212337</v>
-      </c>
-      <c r="R2">
-        <v>-5.4409116128612851</v>
-      </c>
-      <c r="T2">
-        <v>12.866557595299525</v>
-      </c>
-      <c r="U2">
-        <v>-1.2921083630989756</v>
-      </c>
-      <c r="V2">
-        <v>7.5928530463611921</v>
-      </c>
-      <c r="W2">
-        <v>-5.5579910196285809</v>
-      </c>
-      <c r="X2">
-        <v>0.42196938159582231</v>
-      </c>
-      <c r="Y2">
-        <v>13.420133987256612</v>
-      </c>
-      <c r="Z2">
-        <v>7.6562621494114111</v>
-      </c>
-      <c r="AA2">
-        <v>19.039634496721888</v>
-      </c>
-      <c r="AB2">
-        <v>15.385515031509385</v>
-      </c>
-      <c r="AC2">
-        <v>0.68898976938955059</v>
-      </c>
-      <c r="AD2">
-        <v>22.428306109162406</v>
-      </c>
-      <c r="AE2">
-        <v>5.5457248216867541</v>
-      </c>
-      <c r="AF2">
-        <v>9.1297494400295349</v>
-      </c>
-      <c r="AG2">
-        <v>10.328605111257616</v>
-      </c>
-      <c r="AH2">
-        <v>11.490269597014979</v>
-      </c>
-      <c r="AI2">
-        <v>17.657577667022323</v>
-      </c>
-      <c r="AJ2">
-        <v>8.7201404981381074</v>
-      </c>
-      <c r="AK2">
-        <v>12.40124063680981</v>
-      </c>
-      <c r="AL2">
-        <v>-3.4911753837459543</v>
-      </c>
-      <c r="AM2">
-        <v>11.471684429994255</v>
-      </c>
       <c r="AO2">
-        <v>18.601782931215141</v>
+        <v>18.601782868928794</v>
       </c>
       <c r="AP2">
-        <v>14.803417164888515</v>
+        <v>14.803417140607934</v>
       </c>
       <c r="AQ2">
-        <v>-3.8984632604730223</v>
+        <v>-3.8984633129948634</v>
       </c>
       <c r="AR2">
-        <v>19.437971982917603</v>
+        <v>19.437971971565545</v>
       </c>
       <c r="AS2">
-        <v>20.212139375117246</v>
+        <v>20.212139297719773</v>
       </c>
       <c r="AT2">
-        <v>6.3902528383517563</v>
+        <v>6.3902528123698374</v>
       </c>
       <c r="AU2">
-        <v>5.3546063290983739</v>
+        <v>5.3546063109741624</v>
       </c>
       <c r="AV2">
-        <v>9.1704142820524552</v>
+        <v>9.1704141768375536</v>
       </c>
       <c r="AW2">
-        <v>4.46572853857311</v>
+        <v>4.4657285219148193</v>
       </c>
       <c r="AX2">
-        <v>15.380138383481054</v>
+        <v>15.380138349927364</v>
       </c>
       <c r="AY2">
-        <v>18.079189990383263</v>
+        <v>18.079189963473844</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>7.0381158058730122</v>
+      </c>
+      <c r="C3">
+        <v>6.2851482587024563</v>
+      </c>
+      <c r="D3">
+        <v>12.026930254915939</v>
+      </c>
+      <c r="E3">
+        <v>18.675193497021255</v>
+      </c>
+      <c r="F3">
+        <v>4.5492218031362341</v>
+      </c>
+      <c r="G3">
+        <v>10.460772196397755</v>
+      </c>
+      <c r="H3">
+        <v>-2.8138292858076497</v>
+      </c>
+      <c r="I3">
+        <v>2.6416164617394315</v>
+      </c>
+      <c r="J3">
+        <v>14.631661381737374</v>
+      </c>
+      <c r="K3">
+        <v>18.034225080658068</v>
+      </c>
+      <c r="L3">
+        <v>12.715551251795212</v>
+      </c>
+      <c r="M3">
+        <v>-4.0878804180680248</v>
+      </c>
+      <c r="N3">
         <v>6.877254376254939</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-6.2925999639750998</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>11.37873058022177</v>
+      </c>
+      <c r="Q3">
+        <v>4.3381913594709616</v>
+      </c>
+      <c r="R3">
+        <v>1.1129731498115163</v>
+      </c>
+      <c r="S3">
+        <v>14.102361242488037</v>
+      </c>
+      <c r="T3">
+        <v>15.387481541365354</v>
+      </c>
+      <c r="U3">
+        <v>6.7320888843584683</v>
+      </c>
+      <c r="V3">
+        <v>9.8164922255744784</v>
+      </c>
+      <c r="W3">
+        <v>-0.87914994953304415</v>
+      </c>
+      <c r="X3">
+        <v>-3.2903927334911103</v>
+      </c>
+      <c r="Y3">
+        <v>16.979591322630448</v>
+      </c>
+      <c r="Z3">
+        <v>9.5035977268053031</v>
+      </c>
+      <c r="AA3">
+        <v>19.010780937035548</v>
+      </c>
+      <c r="AB3">
+        <v>15.245672363267197</v>
+      </c>
+      <c r="AC3">
+        <v>15.869992094336162</v>
+      </c>
+      <c r="AD3">
+        <v>20.472953070464719</v>
+      </c>
+      <c r="AE3">
+        <v>12.238740332076375</v>
+      </c>
+      <c r="AF3">
+        <v>11.053293920034712</v>
+      </c>
+      <c r="AG3">
+        <v>6.7004142854150146</v>
+      </c>
+      <c r="AH3">
+        <v>4.6593526348438701</v>
+      </c>
+      <c r="AI3">
+        <v>16.549284631016548</v>
+      </c>
+      <c r="AJ3">
+        <v>19.352086592895546</v>
+      </c>
+      <c r="AK3">
+        <v>14.049157876219581</v>
+      </c>
+      <c r="AL3">
+        <v>9.1152762325918459</v>
+      </c>
+      <c r="AM3">
         <v>11.964927595038091</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-5.548955410987837</v>
       </c>
-      <c r="F3">
-        <v>4.5492218300221197</v>
-      </c>
-      <c r="G3">
-        <v>10.460772213339098</v>
-      </c>
-      <c r="H3">
-        <v>-2.813829272411013</v>
-      </c>
-      <c r="I3">
-        <v>2.6416164731993277</v>
-      </c>
-      <c r="J3">
-        <v>14.631661421735032</v>
-      </c>
-      <c r="K3">
-        <v>18.034225108471524</v>
-      </c>
-      <c r="L3">
-        <v>12.715551278647929</v>
-      </c>
-      <c r="M3">
-        <v>-4.0879008702392028</v>
-      </c>
-      <c r="N3">
-        <v>6.8772543942914126</v>
-      </c>
-      <c r="O3">
-        <v>-6.2925999248988944</v>
-      </c>
-      <c r="P3">
-        <v>11.378730608125679</v>
-      </c>
-      <c r="Q3">
-        <v>4.3381913813623711</v>
-      </c>
-      <c r="R3">
-        <v>1.1129731869595503</v>
-      </c>
-      <c r="S3">
-        <v>14.102361247312068</v>
-      </c>
-      <c r="T3">
-        <v>15.387481559369569</v>
-      </c>
-      <c r="U3">
-        <v>6.7320888920465123</v>
-      </c>
-      <c r="V3">
-        <v>9.8164922313899226</v>
-      </c>
-      <c r="W3">
-        <v>-0.87914991137508736</v>
-      </c>
-      <c r="X3">
-        <v>-3.2903927169362603</v>
-      </c>
-      <c r="Y3">
-        <v>16.979591352895518</v>
-      </c>
-      <c r="Z3">
-        <v>9.5035977414973942</v>
-      </c>
-      <c r="AA3">
-        <v>19.010780930117335</v>
-      </c>
-      <c r="AB3">
-        <v>15.245672403920075</v>
-      </c>
-      <c r="AC3">
-        <v>15.869992095666355</v>
-      </c>
-      <c r="AD3">
-        <v>20.472953129112931</v>
-      </c>
-      <c r="AE3">
-        <v>12.238740347828298</v>
-      </c>
-      <c r="AF3">
-        <v>11.053293951920402</v>
-      </c>
-      <c r="AG3">
-        <v>6.7004142892333292</v>
-      </c>
-      <c r="AH3">
-        <v>4.6593526965617542</v>
-      </c>
-      <c r="AI3">
-        <v>16.549284705018962</v>
-      </c>
-      <c r="AJ3">
-        <v>19.352086620235248</v>
-      </c>
-      <c r="AK3">
-        <v>14.049157893464979</v>
-      </c>
-      <c r="AL3">
-        <v>9.1152762558678901</v>
-      </c>
-      <c r="AM3">
-        <v>11.96492767300046</v>
-      </c>
-      <c r="AN3">
-        <v>-5.5489553696623233</v>
-      </c>
       <c r="AO3">
-        <v>19.783124741027486</v>
+        <v>19.783124705028492</v>
       </c>
       <c r="AP3">
-        <v>2.640145500983877</v>
+        <v>2.6401454607080126</v>
       </c>
       <c r="AQ3">
-        <v>9.7698892213606641</v>
+        <v>9.7698892100261858</v>
       </c>
       <c r="AR3">
-        <v>24.959490279506134</v>
+        <v>24.959490272968104</v>
       </c>
       <c r="AS3">
-        <v>15.454346487825887</v>
+        <v>15.454346417125237</v>
       </c>
       <c r="AT3">
-        <v>10.031972811517775</v>
+        <v>10.031972755226292</v>
       </c>
       <c r="AU3">
-        <v>8.6664166952581851</v>
+        <v>8.6664166936829403</v>
       </c>
       <c r="AV3">
-        <v>5.2711433874218159</v>
+        <v>5.2711432952139745</v>
       </c>
       <c r="AW3">
-        <v>4.6173008789369518</v>
+        <v>4.6173008151193642</v>
       </c>
       <c r="AX3">
-        <v>9.6108000251804242</v>
+        <v>9.6107999733049851</v>
       </c>
       <c r="AY3">
-        <v>21.3593346091154</v>
+        <v>21.359334595894019</v>
       </c>
     </row>
   </sheetData>
